--- a/preds/2022/apex_modeler.xlsx
+++ b/preds/2022/apex_modeler.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Brendan/Development/NCAATournament2018/preds/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7D8B9A-76EA-CA4F-A9EA-48EE2734A5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB13258-ECBB-2B4E-93E6-64AB86D01FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="25600" windowHeight="14620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="apex_builder_v1" sheetId="1" r:id="rId1"/>
@@ -40710,8 +40710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E62FFE-5759-9740-B087-BB0F244F1653}">
   <dimension ref="A1:AD56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q5" zoomScale="112" workbookViewId="0">
-      <selection activeCell="AD14" sqref="AD14"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="112" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -40836,11 +40836,11 @@
       </c>
       <c r="AC2" s="13">
         <f>SUM(U:U)</f>
-        <v>629.06719506588706</v>
+        <v>1258.1343901317741</v>
       </c>
       <c r="AD2" s="13">
         <f>SUM(AC2:AC4)</f>
-        <v>70.067195065887063</v>
+        <v>699.13439013177413</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
@@ -40950,42 +40950,42 @@
         <v>0.39287698787214997</v>
       </c>
       <c r="E4">
-        <v>100</v>
+        <v>-175</v>
       </c>
       <c r="F4">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="G4" s="11">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1.5714285714285714</v>
       </c>
       <c r="H4" s="11">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>0.40816326530612246</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="4"/>
-        <v>0.10712301212785003</v>
+        <v>-2.9240624235786328E-2</v>
       </c>
       <c r="L4" s="2">
         <f t="shared" si="5"/>
-        <v>-0.10712301212785003</v>
+        <v>-1.5286277433972484E-2</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" ref="M4:M53" si="6">C4-(I4/(1-I4))*(1-C4)</f>
-        <v>0.21424602425570005</v>
+        <v>-8.0411716648412401E-2</v>
       </c>
       <c r="N4" s="70">
         <f t="shared" ref="N4:N53" si="7">D4-(J4/(1-J4))*(1-D4)</f>
-        <v>-0.21424602425570005</v>
+        <v>-2.5828537733263879E-2</v>
       </c>
       <c r="O4" s="12">
         <v>0</v>
@@ -41106,7 +41106,7 @@
       </c>
       <c r="Z5" s="13">
         <f>Z2+SUM(U:U)</f>
-        <v>1990.0671950658871</v>
+        <v>2619.1343901317741</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
@@ -43374,7 +43374,7 @@
       </c>
       <c r="AC32" s="26">
         <f>$Z$5*AA32</f>
-        <v>19.900671950658872</v>
+        <v>26.19134390131774</v>
       </c>
     </row>
     <row r="33" spans="1:29" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -43470,7 +43470,7 @@
       </c>
       <c r="AC33" s="20">
         <f t="shared" ref="AC33:AC38" si="18">$Z$5*AA33</f>
-        <v>39.801343901317743</v>
+        <v>52.382687802635481</v>
       </c>
     </row>
     <row r="34" spans="1:29" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -43566,7 +43566,7 @@
       </c>
       <c r="AC34" s="20">
         <f t="shared" si="18"/>
-        <v>79.602687802635486</v>
+        <v>104.76537560527096</v>
       </c>
     </row>
     <row r="35" spans="1:29" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -43662,7 +43662,7 @@
       </c>
       <c r="AC35" s="20">
         <f t="shared" si="18"/>
-        <v>99.503359753294362</v>
+        <v>130.95671950658871</v>
       </c>
     </row>
     <row r="36" spans="1:29" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -43758,7 +43758,7 @@
       </c>
       <c r="AC36" s="20">
         <f t="shared" si="18"/>
-        <v>199.00671950658872</v>
+        <v>261.91343901317742</v>
       </c>
     </row>
     <row r="37" spans="1:29" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -43854,7 +43854,7 @@
       </c>
       <c r="AC37" s="20">
         <f t="shared" si="18"/>
-        <v>298.51007925988307</v>
+        <v>392.87015851976611</v>
       </c>
     </row>
     <row r="38" spans="1:29" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -43950,7 +43950,7 @@
       </c>
       <c r="AC38" s="20">
         <f t="shared" si="18"/>
-        <v>398.01343901317745</v>
+        <v>523.82687802635485</v>
       </c>
     </row>
     <row r="39" spans="1:29" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -45298,7 +45298,10 @@
       <c r="P56" s="81"/>
       <c r="S56" s="81"/>
       <c r="T56" s="81"/>
-      <c r="U56" s="81"/>
+      <c r="U56" s="81">
+        <f>SUM(U3:U54)</f>
+        <v>629.06719506588706</v>
+      </c>
       <c r="V56" s="82"/>
       <c r="W56" s="82"/>
     </row>
